--- a/training/output/Resnet34_ViT/W/W2_W1.xlsx
+++ b/training/output/Resnet34_ViT/W/W2_W1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4225</v>
+        <v>0.4520833333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>3.202620716094971</v>
+        <v>2.725813865661621</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.76</v>
+        <v>0.859375</v>
       </c>
       <c r="B3" t="n">
-        <v>2.534897241592407</v>
+        <v>1.995534420013428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8741666666666668</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2.25647569656372</v>
+        <v>1.738601356744766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8941666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="B5" t="n">
-        <v>2.022855401039124</v>
+        <v>1.574837893247604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.9397916666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>1.903350405693054</v>
+        <v>1.419283837080002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.951875</v>
       </c>
       <c r="B7" t="n">
-        <v>1.739447231292725</v>
+        <v>1.359917849302292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9216666666666667</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>1.727988300323486</v>
+        <v>1.250273793935776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9241666666666667</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>1.721342339515686</v>
+        <v>1.184765070676804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>1.625472502708435</v>
+        <v>1.158443033695221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9416666666666668</v>
+        <v>0.965</v>
       </c>
       <c r="B11" t="n">
-        <v>1.599730339050293</v>
+        <v>1.10197314620018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.596770606040955</v>
+        <v>1.047739803791046</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>1.546774153709412</v>
+        <v>1.059680700302124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9191666666666667</v>
+        <v>0.9775</v>
       </c>
       <c r="B14" t="n">
-        <v>1.543606324195862</v>
+        <v>1.031696751713753</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B15" t="n">
-        <v>1.511234812736511</v>
+        <v>1.008254215121269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.513379216194153</v>
+        <v>0.976344108581543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1.546785621643066</v>
+        <v>0.9566466510295868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>1.511825299263001</v>
+        <v>0.9347585737705231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.508427324295044</v>
+        <v>0.9335650652647018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.98</v>
       </c>
       <c r="B20" t="n">
-        <v>1.490925054550171</v>
+        <v>0.930626168847084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.98</v>
       </c>
       <c r="B21" t="n">
-        <v>1.482377424240112</v>
+        <v>0.9315712749958038</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>1.471456341743469</v>
+        <v>0.8998230248689651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1.452766218185425</v>
+        <v>0.9146235734224319</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1.464293618202209</v>
+        <v>0.9024634510278702</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.485245642662048</v>
+        <v>0.8897811770439148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1.465706286430359</v>
+        <v>0.8945203274488449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.95</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B27" t="n">
-        <v>1.467162861824036</v>
+        <v>0.887201339006424</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.97</v>
       </c>
       <c r="B28" t="n">
-        <v>1.456982660293579</v>
+        <v>0.862365797162056</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1.449736337661743</v>
+        <v>0.8565826416015625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1.442523145675659</v>
+        <v>0.8571958988904953</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.446705889701843</v>
+        <v>0.8752963542938232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1.458228058815003</v>
+        <v>0.8606001436710358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.443757815361023</v>
+        <v>0.8422377854585648</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.431841225624084</v>
+        <v>0.8503536731004715</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.434742932319641</v>
+        <v>0.8246074169874191</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1.431146678924561</v>
+        <v>0.8325202614068985</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>1.426105108261108</v>
+        <v>0.8207767903804779</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="B38" t="n">
-        <v>1.42204888343811</v>
+        <v>0.8187302649021149</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B39" t="n">
-        <v>1.428411612510681</v>
+        <v>0.836263969540596</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1.426935076713562</v>
+        <v>0.8920221328735352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9625</v>
       </c>
       <c r="B41" t="n">
-        <v>1.435949444770813</v>
+        <v>0.8360046595335007</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>1.416321468353271</v>
+        <v>0.8144481033086777</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>1.430052165985107</v>
+        <v>0.8104784190654755</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>1.424258165359497</v>
+        <v>0.7980972826480865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1.418554706573486</v>
+        <v>0.7951360493898392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1.418871088027954</v>
+        <v>0.8600216507911682</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>1.412726111412048</v>
+        <v>0.8184289932250977</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>1.437983522415161</v>
+        <v>0.7994821518659592</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>1.439248075485229</v>
+        <v>0.7990617901086807</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>1.432810163497925</v>
+        <v>0.7951032519340515</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>1.419084467887878</v>
+        <v>0.8125411868095398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>1.426709403991699</v>
+        <v>0.8194294720888138</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>1.439560403823853</v>
+        <v>0.7813936173915863</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.415020413398743</v>
+        <v>0.7891208827495575</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>1.415511922836304</v>
+        <v>0.7845399379730225</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.420058159828186</v>
+        <v>0.7803924679756165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>1.420293335914612</v>
+        <v>0.7807913720607758</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>1.422488861083984</v>
+        <v>0.7747309952974319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>1.417847814559936</v>
+        <v>0.7870712280273438</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>1.406311678886414</v>
+        <v>0.772735133767128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>1.412547664642334</v>
+        <v>0.8210457265377045</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>1.425902791023254</v>
+        <v>0.7835123240947723</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1.436740431785583</v>
+        <v>0.7905407398939133</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1.41971960067749</v>
+        <v>0.7836471796035767</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="B65" t="n">
-        <v>1.413598275184631</v>
+        <v>0.7737174779176712</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>1.406191968917847</v>
+        <v>0.7784024029970169</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>1.446497807502747</v>
+        <v>0.7765002846717834</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>1.427667536735535</v>
+        <v>0.775903731584549</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>1.407990522384644</v>
+        <v>0.7793699353933334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>1.41092878818512</v>
+        <v>0.7741887718439102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>1.405460367202759</v>
+        <v>0.767883226275444</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>1.412044744491577</v>
+        <v>0.7719067186117172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>1.423598527908325</v>
+        <v>0.7775249779224396</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>1.418058943748474</v>
+        <v>0.781384289264679</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>1.421996431350708</v>
+        <v>0.772698700428009</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="B76" t="n">
-        <v>1.403157634735107</v>
+        <v>0.7740757018327713</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>1.410132932662964</v>
+        <v>0.7590056955814362</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>1.404985723495483</v>
+        <v>0.776196613907814</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>1.406739959716797</v>
+        <v>0.7551497519016266</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401275110244751</v>
+        <v>0.767779141664505</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>1.402237677574158</v>
+        <v>0.7727676033973694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>1.406204791069031</v>
+        <v>0.7529760897159576</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>1.409190435409546</v>
+        <v>0.7533499300479889</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>1.406881284713745</v>
+        <v>0.7514148950576782</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>1.401467790603638</v>
+        <v>0.759979784488678</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>1.407684440612793</v>
+        <v>0.7494871914386749</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>1.402230944633484</v>
+        <v>0.7715781927108765</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>1.400278086662293</v>
+        <v>0.7567837983369827</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401124238967896</v>
+        <v>0.7686591893434525</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>1.399039535522461</v>
+        <v>0.769537627696991</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401612639427185</v>
+        <v>0.7556357532739639</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B92" t="n">
-        <v>1.398388295173645</v>
+        <v>0.7568846344947815</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399932541847229</v>
+        <v>0.7484243363142014</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>1.400262875556946</v>
+        <v>0.7572216987609863</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="B95" t="n">
-        <v>1.400824155807495</v>
+        <v>0.7449978739023209</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>1.404417896270752</v>
+        <v>0.7466339319944382</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.403947520256043</v>
+        <v>0.7461797893047333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>1.400102477073669</v>
+        <v>0.7546136528253555</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.401339907646179</v>
+        <v>0.7476138025522232</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.397239365577698</v>
+        <v>0.758751779794693</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B101" t="n">
-        <v>1.416904220581055</v>
+        <v>0.7429632842540741</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7428209632635117</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7462154924869537</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7509034872055054</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7526417672634125</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7435994297266006</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7412435412406921</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7693360298871994</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7461356222629547</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7445948421955109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7474151700735092</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7525724917650223</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7415390461683273</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7356351912021637</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7487125992774963</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7518368661403656</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7382626235485077</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7344045639038086</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7523847818374634</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7417468130588531</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7375591099262238</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7396783977746964</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7387980371713638</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7436477392911911</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7531827837228775</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7415719032287598</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7303252369165421</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7456194907426834</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7456239014863968</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7492180317640305</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7367314845323563</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7392182201147079</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7306666821241379</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7367880046367645</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7394398003816605</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7347040474414825</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7552955597639084</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7473749965429306</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.732003852725029</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.745031014084816</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7375539690256119</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7386402040719986</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7366054058074951</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7429062128067017</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.727863997220993</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7472224831581116</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7385056614875793</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7317270636558533</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7466350048780441</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7346934527158737</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7273470163345337</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7331638783216476</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7495784610509872</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7263053208589554</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7367278337478638</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7348440438508987</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7277499884366989</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.736261710524559</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.745790883898735</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7369943112134933</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7283088266849518</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7320904582738876</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7351502031087875</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7367318123579025</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7368036657571793</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7414402514696121</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7258625030517578</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.729274645447731</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7300594449043274</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.741992399096489</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7293227910995483</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7243827283382416</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7285741716623306</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7292705923318863</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7290524989366531</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7241401225328445</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7362241595983505</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7326694875955582</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7317716926336288</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7315229773521423</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.737687736749649</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7256065905094147</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7271185368299484</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7352381944656372</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7289397120475769</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7256433665752411</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.725662425160408</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7316435426473618</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7278789132833481</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7363767772912979</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7201875150203705</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7215810567140579</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7218445688486099</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7350273877382278</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7274994999170303</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7234967201948166</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7246201783418655</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.730470672249794</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7229746580123901</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7222276628017426</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7217155694961548</v>
       </c>
     </row>
   </sheetData>
